--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkArea\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EC1BBF-B038-488B-8A1F-6B210C9B2A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2885FF9-8B0D-4515-BC3F-07DB70D0CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Subject</t>
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>What is JavaScript?</t>
+  </si>
+  <si>
+    <t>JavaScript is a high-level, object-oriented, multi-paradigm programming language.
+ES5=&gt;ES6/ES2015(Biggest update ever)=&gt;ES7/ES2016=&gt;ES8/ES2017=&gt;ES9/ES2018=&gt;New version every year
+After 2015 called Modern JavaScript</t>
+  </si>
+  <si>
+    <t>Type Coercion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When operators convert the type its name is type coercion. </t>
+  </si>
+  <si>
+    <t>5 Falsy values</t>
+  </si>
+  <si>
+    <t>0, '', undefined, null, NaN</t>
+  </si>
+  <si>
+    <t>Strict Equality</t>
+  </si>
+  <si>
+    <t>operator === does not do type coercion. '18'==18=&gt; true but '18'===18=&gt;flase</t>
+  </si>
+  <si>
+    <t>Strict Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For activating strict mode at the first line of the file we should use 'use strict'
+It forbids us to do some certain things and on the errors it will provide more detail error. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +81,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,10 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,25 +411,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="100.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkArea\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2885FF9-8B0D-4515-BC3F-07DB70D0CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12814184-490D-4E41-8C5F-6E23ADC7549D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Subject</t>
   </si>
@@ -64,6 +64,13 @@
   <si>
     <t xml:space="preserve">For activating strict mode at the first line of the file we should use 'use strict'
 It forbids us to do some certain things and on the errors it will provide more detail error. </t>
+  </si>
+  <si>
+    <t>What is DOM?</t>
+  </si>
+  <si>
+    <t>it stands for Document Object Model. It allows JS to access HTML elements and styles to manipulate them.
+DOM Methods and properties are not part of JS. They are part of WEB APIs which JS can interact with them.</t>
   </si>
 </sst>
 </file>
@@ -411,11 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -472,6 +479,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkArea\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12814184-490D-4E41-8C5F-6E23ADC7549D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD17ED6-BFB0-4784-BD8C-6113C605657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkArea\JavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JS\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD17ED6-BFB0-4784-BD8C-6113C605657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Subject</t>
   </si>
@@ -71,13 +70,38 @@
   <si>
     <t>it stands for Document Object Model. It allows JS to access HTML elements and styles to manipulate them.
 DOM Methods and properties are not part of JS. They are part of WEB APIs which JS can interact with them.</t>
+  </si>
+  <si>
+    <t>QuerySelector</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It selects the DOM object by its id or class. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The limitation is if we have multiple objects with the same class it only chooses the first one. We should use QuerySelectorAll in this situation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Keyboards Events</t>
+  </si>
+  <si>
+    <t>They are global events. We need to listen on whole document.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +118,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -420,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -490,6 +522,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
